--- a/0_일정관리/일정관리.xlsx
+++ b/0_일정관리/일정관리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Awsintel4 Repository\joblessFriends\0_일정관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9C01917-456D-43B0-BFF1-7E9F53C42F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E70020B-05D8-4B0A-B37E-C7C68236E56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{840FC74B-7EFB-4D35-A2F3-690057C58CD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{840FC74B-7EFB-4D35-A2F3-690057C58CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="진행스케줄" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="42">
   <si>
     <t>목</t>
   </si>
@@ -187,6 +187,14 @@
   </si>
   <si>
     <t>피그마 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피그마 디자인/각자 분업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,42 +611,63 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,31 +677,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -682,9 +693,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1003,9 +1011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9018C88B-D765-4B7D-8157-48CF03C355BD}">
   <dimension ref="A2:CA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="T12" sqref="T12:AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="26.25" x14ac:dyDescent="0.3"/>
@@ -1022,7 +1030,7 @@
     <row r="3" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <f ca="1">CA3-TODAY()</f>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1">
         <v>45743</v>
@@ -1592,126 +1600,126 @@
       <c r="CA5" s="7"/>
     </row>
     <row r="6" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="26"/>
-      <c r="BS6" s="18" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="30"/>
+      <c r="AT6" s="30"/>
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="31"/>
+      <c r="BS6" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="BT6" s="19"/>
-      <c r="BU6" s="19"/>
-      <c r="BV6" s="19"/>
-      <c r="BW6" s="19"/>
-      <c r="BX6" s="19"/>
-      <c r="BY6" s="19"/>
-      <c r="BZ6" s="20"/>
+      <c r="BT6" s="33"/>
+      <c r="BU6" s="33"/>
+      <c r="BV6" s="33"/>
+      <c r="BW6" s="33"/>
+      <c r="BX6" s="33"/>
+      <c r="BY6" s="33"/>
+      <c r="BZ6" s="34"/>
     </row>
     <row r="7" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28"/>
-      <c r="T7" s="44" t="s">
+      <c r="A7" s="19"/>
+      <c r="T7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AH7" s="23" t="s">
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AH7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="24"/>
-      <c r="AQ7" s="24"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="24"/>
-      <c r="AT7" s="24"/>
-      <c r="AU7" s="24"/>
-      <c r="AV7" s="24"/>
-      <c r="AW7" s="24"/>
-      <c r="AX7" s="24"/>
-      <c r="AY7" s="24"/>
-      <c r="AZ7" s="24"/>
-      <c r="BA7" s="24"/>
-      <c r="BB7" s="24"/>
-      <c r="BC7" s="24"/>
-      <c r="BD7" s="24"/>
-      <c r="BE7" s="24"/>
-      <c r="BF7" s="24"/>
-      <c r="BG7" s="24"/>
-      <c r="BH7" s="24"/>
-      <c r="BI7" s="24"/>
-      <c r="BJ7" s="24"/>
-      <c r="BK7" s="24"/>
-      <c r="BL7" s="24"/>
-      <c r="BM7" s="24"/>
-      <c r="BN7" s="24"/>
-      <c r="BO7" s="24"/>
-      <c r="BP7" s="24"/>
-      <c r="BQ7" s="24"/>
-      <c r="BR7" s="24"/>
-      <c r="BS7" s="25"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="40"/>
+      <c r="AM7" s="40"/>
+      <c r="AN7" s="40"/>
+      <c r="AO7" s="40"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="40"/>
+      <c r="AS7" s="40"/>
+      <c r="AT7" s="40"/>
+      <c r="AU7" s="40"/>
+      <c r="AV7" s="40"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
+      <c r="BA7" s="40"/>
+      <c r="BB7" s="40"/>
+      <c r="BC7" s="40"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="40"/>
+      <c r="BF7" s="40"/>
+      <c r="BG7" s="40"/>
+      <c r="BH7" s="40"/>
+      <c r="BI7" s="40"/>
+      <c r="BJ7" s="40"/>
+      <c r="BK7" s="40"/>
+      <c r="BL7" s="40"/>
+      <c r="BM7" s="40"/>
+      <c r="BN7" s="40"/>
+      <c r="BO7" s="40"/>
+      <c r="BP7" s="40"/>
+      <c r="BQ7" s="40"/>
+      <c r="BR7" s="40"/>
+      <c r="BS7" s="41"/>
       <c r="CA7" s="14" t="s">
         <v>20</v>
       </c>
@@ -1720,124 +1728,124 @@
       <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="29" t="s">
+      <c r="T8" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="31"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="38"/>
     </row>
     <row r="9" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="29" t="s">
+      <c r="T9" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="31"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
     </row>
     <row r="10" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X10" s="35" t="s">
+      <c r="X10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="37"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="25"/>
     </row>
     <row r="11" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="41" t="s">
+      <c r="T11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="32" t="s">
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="27"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="17"/>
     </row>
     <row r="12" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="38" t="s">
+      <c r="T12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="40"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
     </row>
     <row r="13" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="X13" s="32" t="s">
+      <c r="X13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="34"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="BS6:BZ6"/>
+    <mergeCell ref="T7:AE7"/>
+    <mergeCell ref="T8:AE8"/>
+    <mergeCell ref="T9:AE9"/>
+    <mergeCell ref="AH7:BS7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="X13:AE13"/>
     <mergeCell ref="X10:AE10"/>
     <mergeCell ref="T12:AE12"/>
     <mergeCell ref="Y11:AE11"/>
     <mergeCell ref="B6:AW6"/>
-    <mergeCell ref="BS6:BZ6"/>
-    <mergeCell ref="T7:AE7"/>
-    <mergeCell ref="T8:AE8"/>
-    <mergeCell ref="T9:AE9"/>
-    <mergeCell ref="AH7:BS7"/>
     <mergeCell ref="T11:X11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1850,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C0708E-2CF6-4170-A15A-EA1F1492608D}">
   <dimension ref="A2:D80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2182,7 +2190,9 @@
       <c r="C25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
@@ -2218,7 +2228,9 @@
       <c r="C28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
@@ -2230,7 +2242,9 @@
       <c r="C29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="12">

--- a/0_일정관리/일정관리.xlsx
+++ b/0_일정관리/일정관리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Awsintel4 Repository\joblessFriends\0_일정관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E70020B-05D8-4B0A-B37E-C7C68236E56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65F9A3C-5438-42D6-B562-8AC1F7C96A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{840FC74B-7EFB-4D35-A2F3-690057C58CD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{840FC74B-7EFB-4D35-A2F3-690057C58CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="진행스케줄" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="42">
   <si>
     <t>목</t>
   </si>
@@ -614,6 +614,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,36 +684,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1011,9 +1011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9018C88B-D765-4B7D-8157-48CF03C355BD}">
   <dimension ref="A2:CA13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T12" sqref="T12:AE12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="26.25" x14ac:dyDescent="0.3"/>
@@ -1030,7 +1030,7 @@
     <row r="3" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <f ca="1">CA3-TODAY()</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1">
         <v>45743</v>
@@ -1600,126 +1600,126 @@
       <c r="CA5" s="7"/>
     </row>
     <row r="6" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AQ6" s="30"/>
-      <c r="AR6" s="30"/>
-      <c r="AS6" s="30"/>
-      <c r="AT6" s="30"/>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30"/>
-      <c r="AW6" s="31"/>
-      <c r="BS6" s="32" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="40"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="40"/>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="40"/>
+      <c r="AW6" s="41"/>
+      <c r="BS6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BT6" s="33"/>
-      <c r="BU6" s="33"/>
-      <c r="BV6" s="33"/>
-      <c r="BW6" s="33"/>
-      <c r="BX6" s="33"/>
-      <c r="BY6" s="33"/>
-      <c r="BZ6" s="34"/>
+      <c r="BT6" s="19"/>
+      <c r="BU6" s="19"/>
+      <c r="BV6" s="19"/>
+      <c r="BW6" s="19"/>
+      <c r="BX6" s="19"/>
+      <c r="BY6" s="19"/>
+      <c r="BZ6" s="20"/>
     </row>
     <row r="7" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="T7" s="35" t="s">
+      <c r="A7" s="29"/>
+      <c r="T7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AH7" s="39" t="s">
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AH7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="40"/>
-      <c r="AM7" s="40"/>
-      <c r="AN7" s="40"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="40"/>
-      <c r="AS7" s="40"/>
-      <c r="AT7" s="40"/>
-      <c r="AU7" s="40"/>
-      <c r="AV7" s="40"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="40"/>
-      <c r="BA7" s="40"/>
-      <c r="BB7" s="40"/>
-      <c r="BC7" s="40"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="40"/>
-      <c r="BF7" s="40"/>
-      <c r="BG7" s="40"/>
-      <c r="BH7" s="40"/>
-      <c r="BI7" s="40"/>
-      <c r="BJ7" s="40"/>
-      <c r="BK7" s="40"/>
-      <c r="BL7" s="40"/>
-      <c r="BM7" s="40"/>
-      <c r="BN7" s="40"/>
-      <c r="BO7" s="40"/>
-      <c r="BP7" s="40"/>
-      <c r="BQ7" s="40"/>
-      <c r="BR7" s="40"/>
-      <c r="BS7" s="41"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="26"/>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="26"/>
+      <c r="AU7" s="26"/>
+      <c r="AV7" s="26"/>
+      <c r="AW7" s="26"/>
+      <c r="AX7" s="26"/>
+      <c r="AY7" s="26"/>
+      <c r="AZ7" s="26"/>
+      <c r="BA7" s="26"/>
+      <c r="BB7" s="26"/>
+      <c r="BC7" s="26"/>
+      <c r="BD7" s="26"/>
+      <c r="BE7" s="26"/>
+      <c r="BF7" s="26"/>
+      <c r="BG7" s="26"/>
+      <c r="BH7" s="26"/>
+      <c r="BI7" s="26"/>
+      <c r="BJ7" s="26"/>
+      <c r="BK7" s="26"/>
+      <c r="BL7" s="26"/>
+      <c r="BM7" s="26"/>
+      <c r="BN7" s="26"/>
+      <c r="BO7" s="26"/>
+      <c r="BP7" s="26"/>
+      <c r="BQ7" s="26"/>
+      <c r="BR7" s="26"/>
+      <c r="BS7" s="27"/>
       <c r="CA7" s="14" t="s">
         <v>20</v>
       </c>
@@ -1728,54 +1728,54 @@
       <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="36" t="s">
+      <c r="T8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="38"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="24"/>
     </row>
     <row r="9" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="36" t="s">
+      <c r="T9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="38"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="24"/>
     </row>
     <row r="10" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X10" s="23" t="s">
+      <c r="X10" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="25"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="35"/>
     </row>
     <row r="11" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
@@ -1788,58 +1788,53 @@
       <c r="V11" s="43"/>
       <c r="W11" s="43"/>
       <c r="X11" s="44"/>
-      <c r="Y11" s="20" t="s">
+      <c r="Y11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="22"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="32"/>
       <c r="AF11" s="17"/>
     </row>
     <row r="12" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="26" t="s">
+      <c r="T12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="28"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="38"/>
     </row>
     <row r="13" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="X13" s="20" t="s">
+      <c r="X13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="22"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="BS6:BZ6"/>
-    <mergeCell ref="T7:AE7"/>
-    <mergeCell ref="T8:AE8"/>
-    <mergeCell ref="T9:AE9"/>
-    <mergeCell ref="AH7:BS7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="X13:AE13"/>
     <mergeCell ref="X10:AE10"/>
@@ -1847,6 +1842,11 @@
     <mergeCell ref="Y11:AE11"/>
     <mergeCell ref="B6:AW6"/>
     <mergeCell ref="T11:X11"/>
+    <mergeCell ref="BS6:BZ6"/>
+    <mergeCell ref="T7:AE7"/>
+    <mergeCell ref="T8:AE8"/>
+    <mergeCell ref="T9:AE9"/>
+    <mergeCell ref="AH7:BS7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1858,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C0708E-2CF6-4170-A15A-EA1F1492608D}">
   <dimension ref="A2:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2256,7 +2256,9 @@
       <c r="C30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
@@ -2268,7 +2270,9 @@
       <c r="C31" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="12">

--- a/0_일정관리/일정관리.xlsx
+++ b/0_일정관리/일정관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Awsintel4 Repository\joblessFriends\0_일정관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65F9A3C-5438-42D6-B562-8AC1F7C96A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CA00DD-901F-4670-BC6D-ED164694F8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{840FC74B-7EFB-4D35-A2F3-690057C58CD0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="44">
   <si>
     <t>목</t>
   </si>
@@ -195,6 +195,14 @@
   </si>
   <si>
     <t>휴강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩 전 화면기획 리뷰/역할 분담</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,6 +622,57 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,57 +701,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,8 +1020,8 @@
   <dimension ref="A2:CA13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK11" sqref="AK11"/>
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="26.25" x14ac:dyDescent="0.3"/>
@@ -1030,7 +1038,7 @@
     <row r="3" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <f ca="1">CA3-TODAY()</f>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
         <v>45743</v>
@@ -1600,126 +1608,124 @@
       <c r="CA5" s="7"/>
     </row>
     <row r="6" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="40"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="40"/>
-      <c r="AS6" s="40"/>
-      <c r="AT6" s="40"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="40"/>
-      <c r="AW6" s="41"/>
-      <c r="BS6" s="18" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="30"/>
+      <c r="AT6" s="30"/>
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="31"/>
+      <c r="BS6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="BT6" s="19"/>
-      <c r="BU6" s="19"/>
-      <c r="BV6" s="19"/>
-      <c r="BW6" s="19"/>
-      <c r="BX6" s="19"/>
-      <c r="BY6" s="19"/>
-      <c r="BZ6" s="20"/>
+      <c r="BT6" s="36"/>
+      <c r="BU6" s="36"/>
+      <c r="BV6" s="36"/>
+      <c r="BW6" s="36"/>
+      <c r="BX6" s="36"/>
+      <c r="BY6" s="36"/>
+      <c r="BZ6" s="37"/>
     </row>
     <row r="7" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
-      <c r="T7" s="21" t="s">
+      <c r="A7" s="19"/>
+      <c r="T7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AH7" s="25" t="s">
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AJ7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="26"/>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="26"/>
-      <c r="AS7" s="26"/>
-      <c r="AT7" s="26"/>
-      <c r="AU7" s="26"/>
-      <c r="AV7" s="26"/>
-      <c r="AW7" s="26"/>
-      <c r="AX7" s="26"/>
-      <c r="AY7" s="26"/>
-      <c r="AZ7" s="26"/>
-      <c r="BA7" s="26"/>
-      <c r="BB7" s="26"/>
-      <c r="BC7" s="26"/>
-      <c r="BD7" s="26"/>
-      <c r="BE7" s="26"/>
-      <c r="BF7" s="26"/>
-      <c r="BG7" s="26"/>
-      <c r="BH7" s="26"/>
-      <c r="BI7" s="26"/>
-      <c r="BJ7" s="26"/>
-      <c r="BK7" s="26"/>
-      <c r="BL7" s="26"/>
-      <c r="BM7" s="26"/>
-      <c r="BN7" s="26"/>
-      <c r="BO7" s="26"/>
-      <c r="BP7" s="26"/>
-      <c r="BQ7" s="26"/>
-      <c r="BR7" s="26"/>
-      <c r="BS7" s="27"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="43"/>
+      <c r="BA7" s="43"/>
+      <c r="BB7" s="43"/>
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="43"/>
+      <c r="BE7" s="43"/>
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="43"/>
+      <c r="BH7" s="43"/>
+      <c r="BI7" s="43"/>
+      <c r="BJ7" s="43"/>
+      <c r="BK7" s="43"/>
+      <c r="BL7" s="43"/>
+      <c r="BM7" s="43"/>
+      <c r="BN7" s="43"/>
+      <c r="BO7" s="43"/>
+      <c r="BP7" s="43"/>
+      <c r="BQ7" s="43"/>
+      <c r="BR7" s="43"/>
+      <c r="BS7" s="44"/>
       <c r="CA7" s="14" t="s">
         <v>20</v>
       </c>
@@ -1728,113 +1734,118 @@
       <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="22" t="s">
+      <c r="T8" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="24"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="41"/>
     </row>
     <row r="9" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="T9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="24"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="41"/>
     </row>
     <row r="10" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X10" s="33" t="s">
+      <c r="X10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="35"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="25"/>
     </row>
     <row r="11" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="42" t="s">
+      <c r="T11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="30" t="s">
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="32"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="22"/>
       <c r="AF11" s="17"/>
     </row>
     <row r="12" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="36" t="s">
+      <c r="T12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="38"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
     </row>
     <row r="13" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="X13" s="30" t="s">
+      <c r="X13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="32"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="BS6:BZ6"/>
+    <mergeCell ref="T7:AE7"/>
+    <mergeCell ref="T8:AE8"/>
+    <mergeCell ref="T9:AE9"/>
+    <mergeCell ref="AJ7:BS7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="X13:AE13"/>
     <mergeCell ref="X10:AE10"/>
@@ -1842,11 +1853,6 @@
     <mergeCell ref="Y11:AE11"/>
     <mergeCell ref="B6:AW6"/>
     <mergeCell ref="T11:X11"/>
-    <mergeCell ref="BS6:BZ6"/>
-    <mergeCell ref="T7:AE7"/>
-    <mergeCell ref="T8:AE8"/>
-    <mergeCell ref="T9:AE9"/>
-    <mergeCell ref="AH7:BS7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1858,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C0708E-2CF6-4170-A15A-EA1F1492608D}">
   <dimension ref="A2:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2284,7 +2290,9 @@
       <c r="C32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
@@ -2320,7 +2328,9 @@
       <c r="C35" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
@@ -2330,9 +2340,11 @@
         <v>45776</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="12">

--- a/0_일정관리/일정관리.xlsx
+++ b/0_일정관리/일정관리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Awsintel4 Repository\joblessFriends\0_일정관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CA00DD-901F-4670-BC6D-ED164694F8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E7FF78-ED9A-4CC3-A658-1449B6543B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{840FC74B-7EFB-4D35-A2F3-690057C58CD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{840FC74B-7EFB-4D35-A2F3-690057C58CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="진행스케줄" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="48">
   <si>
     <t>목</t>
   </si>
@@ -203,6 +203,22 @@
   </si>
   <si>
     <t>코딩 전 화면기획 리뷰/역할 분담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체공휴일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩 시작(2시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩(2시간)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,6 +638,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,36 +717,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,9 +1035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9018C88B-D765-4B7D-8157-48CF03C355BD}">
   <dimension ref="A2:CA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ9" sqref="AJ9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="26.25" x14ac:dyDescent="0.3"/>
@@ -1038,7 +1054,7 @@
     <row r="3" spans="1:79" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <f ca="1">CA3-TODAY()</f>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>45743</v>
@@ -1608,124 +1624,124 @@
       <c r="CA5" s="7"/>
     </row>
     <row r="6" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AQ6" s="30"/>
-      <c r="AR6" s="30"/>
-      <c r="AS6" s="30"/>
-      <c r="AT6" s="30"/>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30"/>
-      <c r="AW6" s="31"/>
-      <c r="BS6" s="35" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="40"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="40"/>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="40"/>
+      <c r="AW6" s="41"/>
+      <c r="BS6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BT6" s="36"/>
-      <c r="BU6" s="36"/>
-      <c r="BV6" s="36"/>
-      <c r="BW6" s="36"/>
-      <c r="BX6" s="36"/>
-      <c r="BY6" s="36"/>
-      <c r="BZ6" s="37"/>
+      <c r="BT6" s="19"/>
+      <c r="BU6" s="19"/>
+      <c r="BV6" s="19"/>
+      <c r="BW6" s="19"/>
+      <c r="BX6" s="19"/>
+      <c r="BY6" s="19"/>
+      <c r="BZ6" s="20"/>
     </row>
     <row r="7" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="T7" s="38" t="s">
+      <c r="A7" s="29"/>
+      <c r="T7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AJ7" s="42" t="s">
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AJ7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="43"/>
-      <c r="BA7" s="43"/>
-      <c r="BB7" s="43"/>
-      <c r="BC7" s="43"/>
-      <c r="BD7" s="43"/>
-      <c r="BE7" s="43"/>
-      <c r="BF7" s="43"/>
-      <c r="BG7" s="43"/>
-      <c r="BH7" s="43"/>
-      <c r="BI7" s="43"/>
-      <c r="BJ7" s="43"/>
-      <c r="BK7" s="43"/>
-      <c r="BL7" s="43"/>
-      <c r="BM7" s="43"/>
-      <c r="BN7" s="43"/>
-      <c r="BO7" s="43"/>
-      <c r="BP7" s="43"/>
-      <c r="BQ7" s="43"/>
-      <c r="BR7" s="43"/>
-      <c r="BS7" s="44"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="26"/>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="26"/>
+      <c r="AU7" s="26"/>
+      <c r="AV7" s="26"/>
+      <c r="AW7" s="26"/>
+      <c r="AX7" s="26"/>
+      <c r="AY7" s="26"/>
+      <c r="AZ7" s="26"/>
+      <c r="BA7" s="26"/>
+      <c r="BB7" s="26"/>
+      <c r="BC7" s="26"/>
+      <c r="BD7" s="26"/>
+      <c r="BE7" s="26"/>
+      <c r="BF7" s="26"/>
+      <c r="BG7" s="26"/>
+      <c r="BH7" s="26"/>
+      <c r="BI7" s="26"/>
+      <c r="BJ7" s="26"/>
+      <c r="BK7" s="26"/>
+      <c r="BL7" s="26"/>
+      <c r="BM7" s="26"/>
+      <c r="BN7" s="26"/>
+      <c r="BO7" s="26"/>
+      <c r="BP7" s="26"/>
+      <c r="BQ7" s="26"/>
+      <c r="BR7" s="26"/>
+      <c r="BS7" s="27"/>
       <c r="CA7" s="14" t="s">
         <v>20</v>
       </c>
@@ -1734,118 +1750,113 @@
       <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="T8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="41"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="24"/>
     </row>
     <row r="9" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="39" t="s">
+      <c r="T9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="41"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="24"/>
     </row>
     <row r="10" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X10" s="23" t="s">
+      <c r="X10" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="25"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="35"/>
     </row>
     <row r="11" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="32" t="s">
+      <c r="T11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="20" t="s">
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="22"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="32"/>
       <c r="AF11" s="17"/>
     </row>
     <row r="12" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="26" t="s">
+      <c r="T12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="28"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="38"/>
     </row>
     <row r="13" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="X13" s="20" t="s">
+      <c r="X13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="22"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="BS6:BZ6"/>
-    <mergeCell ref="T7:AE7"/>
-    <mergeCell ref="T8:AE8"/>
-    <mergeCell ref="T9:AE9"/>
-    <mergeCell ref="AJ7:BS7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="X13:AE13"/>
     <mergeCell ref="X10:AE10"/>
@@ -1853,6 +1864,11 @@
     <mergeCell ref="Y11:AE11"/>
     <mergeCell ref="B6:AW6"/>
     <mergeCell ref="T11:X11"/>
+    <mergeCell ref="BS6:BZ6"/>
+    <mergeCell ref="T7:AE7"/>
+    <mergeCell ref="T8:AE8"/>
+    <mergeCell ref="T9:AE9"/>
+    <mergeCell ref="AJ7:BS7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1864,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C0708E-2CF6-4170-A15A-EA1F1492608D}">
   <dimension ref="A2:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2410,25 +2426,29 @@
       <c r="A42" s="12">
         <v>38</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="10">
         <v>45782</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="9"/>
+      <c r="D42" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>37</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="10">
         <v>45783</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="9"/>
+      <c r="D43" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
@@ -2440,7 +2460,9 @@
       <c r="C44" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
@@ -2452,7 +2474,9 @@
       <c r="C45" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
@@ -2464,7 +2488,9 @@
       <c r="C46" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="12">

--- a/0_일정관리/일정관리.xlsx
+++ b/0_일정관리/일정관리.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Awsintel4 Repository\joblessFriends\0_일정관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\joblessFriends\0_일정관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E7FF78-ED9A-4CC3-A658-1449B6543B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9F3920-4A2D-48B2-9072-EF27B47A151F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{840FC74B-7EFB-4D35-A2F3-690057C58CD0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{840FC74B-7EFB-4D35-A2F3-690057C58CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="진행스케줄" sheetId="2" r:id="rId1"/>
     <sheet name="일지" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="49">
   <si>
     <t>목</t>
   </si>
@@ -219,6 +219,10 @@
   </si>
   <si>
     <t>코딩(2시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,9 +639,60 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,57 +721,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,21 +1044,21 @@
       <selection pane="topRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="26.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.69921875" defaultRowHeight="25.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="6.75" style="4"/>
+    <col min="1" max="1" width="11.8984375" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="6.69921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <f ca="1">CA3-TODAY()</f>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1">
         <v>45743</v>
@@ -1291,7 +1295,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1623,240 +1627,245 @@
       <c r="BZ5" s="5"/>
       <c r="CA5" s="7"/>
     </row>
-    <row r="6" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="40"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="40"/>
-      <c r="AS6" s="40"/>
-      <c r="AT6" s="40"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="40"/>
-      <c r="AW6" s="41"/>
-      <c r="BS6" s="18" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="30"/>
+      <c r="AT6" s="30"/>
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="31"/>
+      <c r="BS6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="BT6" s="19"/>
-      <c r="BU6" s="19"/>
-      <c r="BV6" s="19"/>
-      <c r="BW6" s="19"/>
-      <c r="BX6" s="19"/>
-      <c r="BY6" s="19"/>
-      <c r="BZ6" s="20"/>
-    </row>
-    <row r="7" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
-      <c r="T7" s="21" t="s">
+      <c r="BT6" s="36"/>
+      <c r="BU6" s="36"/>
+      <c r="BV6" s="36"/>
+      <c r="BW6" s="36"/>
+      <c r="BX6" s="36"/>
+      <c r="BY6" s="36"/>
+      <c r="BZ6" s="37"/>
+    </row>
+    <row r="7" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="19"/>
+      <c r="T7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AJ7" s="25" t="s">
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AJ7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AK7" s="26"/>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="26"/>
-      <c r="AS7" s="26"/>
-      <c r="AT7" s="26"/>
-      <c r="AU7" s="26"/>
-      <c r="AV7" s="26"/>
-      <c r="AW7" s="26"/>
-      <c r="AX7" s="26"/>
-      <c r="AY7" s="26"/>
-      <c r="AZ7" s="26"/>
-      <c r="BA7" s="26"/>
-      <c r="BB7" s="26"/>
-      <c r="BC7" s="26"/>
-      <c r="BD7" s="26"/>
-      <c r="BE7" s="26"/>
-      <c r="BF7" s="26"/>
-      <c r="BG7" s="26"/>
-      <c r="BH7" s="26"/>
-      <c r="BI7" s="26"/>
-      <c r="BJ7" s="26"/>
-      <c r="BK7" s="26"/>
-      <c r="BL7" s="26"/>
-      <c r="BM7" s="26"/>
-      <c r="BN7" s="26"/>
-      <c r="BO7" s="26"/>
-      <c r="BP7" s="26"/>
-      <c r="BQ7" s="26"/>
-      <c r="BR7" s="26"/>
-      <c r="BS7" s="27"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="43"/>
+      <c r="BA7" s="43"/>
+      <c r="BB7" s="43"/>
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="43"/>
+      <c r="BE7" s="43"/>
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="43"/>
+      <c r="BH7" s="43"/>
+      <c r="BI7" s="43"/>
+      <c r="BJ7" s="43"/>
+      <c r="BK7" s="43"/>
+      <c r="BL7" s="43"/>
+      <c r="BM7" s="43"/>
+      <c r="BN7" s="43"/>
+      <c r="BO7" s="43"/>
+      <c r="BP7" s="43"/>
+      <c r="BQ7" s="43"/>
+      <c r="BR7" s="43"/>
+      <c r="BS7" s="44"/>
       <c r="CA7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:79" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:79" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="22" t="s">
+      <c r="T8" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="24"/>
-    </row>
-    <row r="9" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="41"/>
+    </row>
+    <row r="9" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="T9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="24"/>
-    </row>
-    <row r="10" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="41"/>
+    </row>
+    <row r="10" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X10" s="33" t="s">
+      <c r="X10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="35"/>
-    </row>
-    <row r="11" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="25"/>
+    </row>
+    <row r="11" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="42" t="s">
+      <c r="T11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="30" t="s">
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="32"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="22"/>
       <c r="AF11" s="17"/>
     </row>
-    <row r="12" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="36" t="s">
+      <c r="T12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="38"/>
-    </row>
-    <row r="13" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
+    </row>
+    <row r="13" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="X13" s="30" t="s">
+      <c r="X13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="32"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="BS6:BZ6"/>
+    <mergeCell ref="T7:AE7"/>
+    <mergeCell ref="T8:AE8"/>
+    <mergeCell ref="T9:AE9"/>
+    <mergeCell ref="AJ7:BS7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="X13:AE13"/>
     <mergeCell ref="X10:AE10"/>
@@ -1864,11 +1873,6 @@
     <mergeCell ref="Y11:AE11"/>
     <mergeCell ref="B6:AW6"/>
     <mergeCell ref="T11:X11"/>
-    <mergeCell ref="BS6:BZ6"/>
-    <mergeCell ref="T7:AE7"/>
-    <mergeCell ref="T8:AE8"/>
-    <mergeCell ref="T9:AE9"/>
-    <mergeCell ref="AJ7:BS7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1880,19 +1884,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C0708E-2CF6-4170-A15A-EA1F1492608D}">
   <dimension ref="A2:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="98.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
@@ -1906,7 +1910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>77</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>76</v>
       </c>
@@ -1934,7 +1938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>75</v>
       </c>
@@ -1946,7 +1950,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>74</v>
       </c>
@@ -1958,7 +1962,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>73</v>
       </c>
@@ -1972,7 +1976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>72</v>
       </c>
@@ -1986,7 +1990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="12">
         <v>71</v>
       </c>
@@ -2000,7 +2004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>70</v>
       </c>
@@ -2014,7 +2018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="12">
         <v>69</v>
       </c>
@@ -2028,7 +2032,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>68</v>
       </c>
@@ -2040,7 +2044,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>67</v>
       </c>
@@ -2052,7 +2056,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="12">
         <v>66</v>
       </c>
@@ -2066,7 +2070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="12">
         <v>65</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>64</v>
       </c>
@@ -2094,7 +2098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="12">
         <v>63</v>
       </c>
@@ -2108,7 +2112,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>62</v>
       </c>
@@ -2122,7 +2126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="12">
         <v>61</v>
       </c>
@@ -2134,7 +2138,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
         <v>60</v>
       </c>
@@ -2146,7 +2150,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>59</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="12">
         <v>58</v>
       </c>
@@ -2174,7 +2178,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="12">
         <v>57</v>
       </c>
@@ -2188,7 +2192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>56</v>
       </c>
@@ -2202,7 +2206,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="12">
         <v>55</v>
       </c>
@@ -2216,7 +2220,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>54</v>
       </c>
@@ -2228,7 +2232,7 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="12">
         <v>53</v>
       </c>
@@ -2240,7 +2244,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="12">
         <v>52</v>
       </c>
@@ -2254,7 +2258,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>51</v>
       </c>
@@ -2268,7 +2272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>50</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>49</v>
       </c>
@@ -2296,7 +2300,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>48</v>
       </c>
@@ -2310,7 +2314,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>47</v>
       </c>
@@ -2322,7 +2326,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="12">
         <v>46</v>
       </c>
@@ -2334,7 +2338,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>45</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="12">
         <v>44</v>
       </c>
@@ -2362,7 +2366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <v>43</v>
       </c>
@@ -2374,7 +2378,7 @@
       </c>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>42</v>
       </c>
@@ -2386,7 +2390,7 @@
       </c>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="12">
         <v>41</v>
       </c>
@@ -2398,7 +2402,7 @@
       </c>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>40</v>
       </c>
@@ -2410,7 +2414,7 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>39</v>
       </c>
@@ -2422,7 +2426,7 @@
       </c>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>38</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
         <v>37</v>
       </c>
@@ -2450,7 +2454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
         <v>36</v>
       </c>
@@ -2464,7 +2468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
         <v>35</v>
       </c>
@@ -2478,7 +2482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="12">
         <v>34</v>
       </c>
@@ -2492,7 +2496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="12">
         <v>33</v>
       </c>
@@ -2504,7 +2508,7 @@
       </c>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="12">
         <v>32</v>
       </c>
@@ -2516,7 +2520,7 @@
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="12">
         <v>31</v>
       </c>
@@ -2526,9 +2530,11 @@
       <c r="C49" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="12">
         <v>30</v>
       </c>
@@ -2538,9 +2544,11 @@
       <c r="C50" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="12">
         <v>29</v>
       </c>
@@ -2550,9 +2558,11 @@
       <c r="C51" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="12">
         <v>28</v>
       </c>
@@ -2564,7 +2574,7 @@
       </c>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="12">
         <v>27</v>
       </c>
@@ -2576,7 +2586,7 @@
       </c>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="12">
         <v>26</v>
       </c>
@@ -2588,7 +2598,7 @@
       </c>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="12">
         <v>25</v>
       </c>
@@ -2600,7 +2610,7 @@
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="12">
         <v>24</v>
       </c>
@@ -2612,7 +2622,7 @@
       </c>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="12">
         <v>23</v>
       </c>
@@ -2624,7 +2634,7 @@
       </c>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="12">
         <v>22</v>
       </c>
@@ -2636,7 +2646,7 @@
       </c>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="12">
         <v>21</v>
       </c>
@@ -2648,7 +2658,7 @@
       </c>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="12">
         <v>20</v>
       </c>
@@ -2660,7 +2670,7 @@
       </c>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="12">
         <v>19</v>
       </c>
@@ -2672,7 +2682,7 @@
       </c>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="12">
         <v>18</v>
       </c>
@@ -2684,7 +2694,7 @@
       </c>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="12">
         <v>17</v>
       </c>
@@ -2696,7 +2706,7 @@
       </c>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="12">
         <v>16</v>
       </c>
@@ -2708,7 +2718,7 @@
       </c>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="12">
         <v>15</v>
       </c>
@@ -2720,7 +2730,7 @@
       </c>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="12">
         <v>14</v>
       </c>
@@ -2732,7 +2742,7 @@
       </c>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="12">
         <v>13</v>
       </c>
@@ -2744,7 +2754,7 @@
       </c>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="12">
         <v>12</v>
       </c>
@@ -2756,7 +2766,7 @@
       </c>
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="12">
         <v>11</v>
       </c>
@@ -2768,7 +2778,7 @@
       </c>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="12">
         <v>10</v>
       </c>
@@ -2780,7 +2790,7 @@
       </c>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="12">
         <v>9</v>
       </c>
@@ -2792,7 +2802,7 @@
       </c>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="12">
         <v>8</v>
       </c>
@@ -2804,7 +2814,7 @@
       </c>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="12">
         <v>7</v>
       </c>
@@ -2816,7 +2826,7 @@
       </c>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="12">
         <v>6</v>
       </c>
@@ -2828,7 +2838,7 @@
       </c>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="12">
         <v>5</v>
       </c>
@@ -2840,7 +2850,7 @@
       </c>
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="12">
         <v>4</v>
       </c>
@@ -2852,7 +2862,7 @@
       </c>
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="12">
         <v>3</v>
       </c>
@@ -2864,7 +2874,7 @@
       </c>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="12">
         <v>2</v>
       </c>
@@ -2876,7 +2886,7 @@
       </c>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="12">
         <v>1</v>
       </c>
@@ -2888,7 +2898,7 @@
       </c>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="12">
         <v>0</v>
       </c>

--- a/0_일정관리/일정관리.xlsx
+++ b/0_일정관리/일정관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\joblessFriends\0_일정관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9F3920-4A2D-48B2-9072-EF27B47A151F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F37F7D-F041-44B5-93BE-54DD49956F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{840FC74B-7EFB-4D35-A2F3-690057C58CD0}"/>
   </bookViews>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="50">
   <si>
     <t>목</t>
   </si>
@@ -223,6 +214,10 @@
   </si>
   <si>
     <t>코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩(오우람:기업 공고 관리/최유혁,주찬미:이력서/박찬정:소셜로그인-구글/전유빈:게시판 댓글/정현식:공고 작성)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,6 +637,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,36 +716,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,7 +1053,7 @@
     <row r="3" spans="1:79" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <f ca="1">CA3-TODAY()</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>45743</v>
@@ -1628,124 +1623,124 @@
       <c r="CA5" s="7"/>
     </row>
     <row r="6" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AQ6" s="30"/>
-      <c r="AR6" s="30"/>
-      <c r="AS6" s="30"/>
-      <c r="AT6" s="30"/>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30"/>
-      <c r="AW6" s="31"/>
-      <c r="BS6" s="35" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="40"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="40"/>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="40"/>
+      <c r="AW6" s="41"/>
+      <c r="BS6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BT6" s="36"/>
-      <c r="BU6" s="36"/>
-      <c r="BV6" s="36"/>
-      <c r="BW6" s="36"/>
-      <c r="BX6" s="36"/>
-      <c r="BY6" s="36"/>
-      <c r="BZ6" s="37"/>
+      <c r="BT6" s="19"/>
+      <c r="BU6" s="19"/>
+      <c r="BV6" s="19"/>
+      <c r="BW6" s="19"/>
+      <c r="BX6" s="19"/>
+      <c r="BY6" s="19"/>
+      <c r="BZ6" s="20"/>
     </row>
     <row r="7" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="19"/>
-      <c r="T7" s="38" t="s">
+      <c r="A7" s="29"/>
+      <c r="T7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AJ7" s="42" t="s">
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AJ7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="43"/>
-      <c r="BA7" s="43"/>
-      <c r="BB7" s="43"/>
-      <c r="BC7" s="43"/>
-      <c r="BD7" s="43"/>
-      <c r="BE7" s="43"/>
-      <c r="BF7" s="43"/>
-      <c r="BG7" s="43"/>
-      <c r="BH7" s="43"/>
-      <c r="BI7" s="43"/>
-      <c r="BJ7" s="43"/>
-      <c r="BK7" s="43"/>
-      <c r="BL7" s="43"/>
-      <c r="BM7" s="43"/>
-      <c r="BN7" s="43"/>
-      <c r="BO7" s="43"/>
-      <c r="BP7" s="43"/>
-      <c r="BQ7" s="43"/>
-      <c r="BR7" s="43"/>
-      <c r="BS7" s="44"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="26"/>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="26"/>
+      <c r="AU7" s="26"/>
+      <c r="AV7" s="26"/>
+      <c r="AW7" s="26"/>
+      <c r="AX7" s="26"/>
+      <c r="AY7" s="26"/>
+      <c r="AZ7" s="26"/>
+      <c r="BA7" s="26"/>
+      <c r="BB7" s="26"/>
+      <c r="BC7" s="26"/>
+      <c r="BD7" s="26"/>
+      <c r="BE7" s="26"/>
+      <c r="BF7" s="26"/>
+      <c r="BG7" s="26"/>
+      <c r="BH7" s="26"/>
+      <c r="BI7" s="26"/>
+      <c r="BJ7" s="26"/>
+      <c r="BK7" s="26"/>
+      <c r="BL7" s="26"/>
+      <c r="BM7" s="26"/>
+      <c r="BN7" s="26"/>
+      <c r="BO7" s="26"/>
+      <c r="BP7" s="26"/>
+      <c r="BQ7" s="26"/>
+      <c r="BR7" s="26"/>
+      <c r="BS7" s="27"/>
       <c r="CA7" s="14" t="s">
         <v>20</v>
       </c>
@@ -1754,118 +1749,113 @@
       <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="T8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="41"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="24"/>
     </row>
     <row r="9" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="39" t="s">
+      <c r="T9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="41"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="24"/>
     </row>
     <row r="10" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X10" s="23" t="s">
+      <c r="X10" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="25"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="35"/>
     </row>
     <row r="11" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="32" t="s">
+      <c r="T11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="20" t="s">
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="22"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="32"/>
       <c r="AF11" s="17"/>
     </row>
     <row r="12" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="26" t="s">
+      <c r="T12" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="28"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="38"/>
     </row>
     <row r="13" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="X13" s="20" t="s">
+      <c r="X13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="22"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="BS6:BZ6"/>
-    <mergeCell ref="T7:AE7"/>
-    <mergeCell ref="T8:AE8"/>
-    <mergeCell ref="T9:AE9"/>
-    <mergeCell ref="AJ7:BS7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="X13:AE13"/>
     <mergeCell ref="X10:AE10"/>
@@ -1873,6 +1863,11 @@
     <mergeCell ref="Y11:AE11"/>
     <mergeCell ref="B6:AW6"/>
     <mergeCell ref="T11:X11"/>
+    <mergeCell ref="BS6:BZ6"/>
+    <mergeCell ref="T7:AE7"/>
+    <mergeCell ref="T8:AE8"/>
+    <mergeCell ref="T9:AE9"/>
+    <mergeCell ref="AJ7:BS7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1884,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C0708E-2CF6-4170-A15A-EA1F1492608D}">
   <dimension ref="A2:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2572,7 +2567,9 @@
       <c r="C52" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="9"/>
+      <c r="D52" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="12">
@@ -2584,7 +2581,9 @@
       <c r="C53" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="9"/>
+      <c r="D53" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="12">
@@ -2620,7 +2619,9 @@
       <c r="C56" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="9"/>
+      <c r="D56" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="12">
@@ -2632,7 +2633,9 @@
       <c r="C57" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="9"/>
+      <c r="D57" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="12">

--- a/0_일정관리/일정관리.xlsx
+++ b/0_일정관리/일정관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\joblessFriends\0_일정관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F37F7D-F041-44B5-93BE-54DD49956F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCFCCCF-AECD-4AFF-8194-44252F38805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{840FC74B-7EFB-4D35-A2F3-690057C58CD0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="52">
   <si>
     <t>목</t>
   </si>
@@ -218,6 +218,14 @@
   </si>
   <si>
     <t>코딩(오우람:기업 공고 관리/최유혁,주찬미:이력서/박찬정:소셜로그인-구글/전유빈:게시판 댓글/정현식:공고 작성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩(오우람:채팅 기능/최유혁,주찬미:이력서/박찬정:소셜로그인-구글/전유빈:게시판 댓글/정현식:공고 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩(오우람:채팅 기능/최유혁,주찬미:이력서/박찬정:UI 고도화/전유빈:게시판 댓글/정현식:공고 주변기능)/중간점검 대비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,6 +645,57 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,57 +724,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,7 +1043,7 @@
   <dimension ref="A2:CA13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
@@ -1053,7 +1061,7 @@
     <row r="3" spans="1:79" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <f ca="1">CA3-TODAY()</f>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>45743</v>
@@ -1623,124 +1631,124 @@
       <c r="CA5" s="7"/>
     </row>
     <row r="6" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="40"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="40"/>
-      <c r="AS6" s="40"/>
-      <c r="AT6" s="40"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="40"/>
-      <c r="AW6" s="41"/>
-      <c r="BS6" s="18" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="30"/>
+      <c r="AS6" s="30"/>
+      <c r="AT6" s="30"/>
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="31"/>
+      <c r="BS6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="BT6" s="19"/>
-      <c r="BU6" s="19"/>
-      <c r="BV6" s="19"/>
-      <c r="BW6" s="19"/>
-      <c r="BX6" s="19"/>
-      <c r="BY6" s="19"/>
-      <c r="BZ6" s="20"/>
+      <c r="BT6" s="36"/>
+      <c r="BU6" s="36"/>
+      <c r="BV6" s="36"/>
+      <c r="BW6" s="36"/>
+      <c r="BX6" s="36"/>
+      <c r="BY6" s="36"/>
+      <c r="BZ6" s="37"/>
     </row>
     <row r="7" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="29"/>
-      <c r="T7" s="21" t="s">
+      <c r="A7" s="19"/>
+      <c r="T7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AJ7" s="25" t="s">
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AJ7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AK7" s="26"/>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="26"/>
-      <c r="AS7" s="26"/>
-      <c r="AT7" s="26"/>
-      <c r="AU7" s="26"/>
-      <c r="AV7" s="26"/>
-      <c r="AW7" s="26"/>
-      <c r="AX7" s="26"/>
-      <c r="AY7" s="26"/>
-      <c r="AZ7" s="26"/>
-      <c r="BA7" s="26"/>
-      <c r="BB7" s="26"/>
-      <c r="BC7" s="26"/>
-      <c r="BD7" s="26"/>
-      <c r="BE7" s="26"/>
-      <c r="BF7" s="26"/>
-      <c r="BG7" s="26"/>
-      <c r="BH7" s="26"/>
-      <c r="BI7" s="26"/>
-      <c r="BJ7" s="26"/>
-      <c r="BK7" s="26"/>
-      <c r="BL7" s="26"/>
-      <c r="BM7" s="26"/>
-      <c r="BN7" s="26"/>
-      <c r="BO7" s="26"/>
-      <c r="BP7" s="26"/>
-      <c r="BQ7" s="26"/>
-      <c r="BR7" s="26"/>
-      <c r="BS7" s="27"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="43"/>
+      <c r="BA7" s="43"/>
+      <c r="BB7" s="43"/>
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="43"/>
+      <c r="BE7" s="43"/>
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="43"/>
+      <c r="BH7" s="43"/>
+      <c r="BI7" s="43"/>
+      <c r="BJ7" s="43"/>
+      <c r="BK7" s="43"/>
+      <c r="BL7" s="43"/>
+      <c r="BM7" s="43"/>
+      <c r="BN7" s="43"/>
+      <c r="BO7" s="43"/>
+      <c r="BP7" s="43"/>
+      <c r="BQ7" s="43"/>
+      <c r="BR7" s="43"/>
+      <c r="BS7" s="44"/>
       <c r="CA7" s="14" t="s">
         <v>20</v>
       </c>
@@ -1749,113 +1757,118 @@
       <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="22" t="s">
+      <c r="T8" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="24"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="41"/>
     </row>
     <row r="9" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="T9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="24"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="41"/>
     </row>
     <row r="10" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X10" s="33" t="s">
+      <c r="X10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="35"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="25"/>
     </row>
     <row r="11" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="42" t="s">
+      <c r="T11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="30" t="s">
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="32"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="22"/>
       <c r="AF11" s="17"/>
     </row>
     <row r="12" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="36" t="s">
+      <c r="T12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="38"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
     </row>
     <row r="13" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="X13" s="30" t="s">
+      <c r="X13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="32"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="BS6:BZ6"/>
+    <mergeCell ref="T7:AE7"/>
+    <mergeCell ref="T8:AE8"/>
+    <mergeCell ref="T9:AE9"/>
+    <mergeCell ref="AJ7:BS7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="X13:AE13"/>
     <mergeCell ref="X10:AE10"/>
@@ -1863,11 +1876,6 @@
     <mergeCell ref="Y11:AE11"/>
     <mergeCell ref="B6:AW6"/>
     <mergeCell ref="T11:X11"/>
-    <mergeCell ref="BS6:BZ6"/>
-    <mergeCell ref="T7:AE7"/>
-    <mergeCell ref="T8:AE8"/>
-    <mergeCell ref="T9:AE9"/>
-    <mergeCell ref="AJ7:BS7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1879,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C0708E-2CF6-4170-A15A-EA1F1492608D}">
   <dimension ref="A2:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2647,7 +2655,9 @@
       <c r="C58" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="9"/>
+      <c r="D58" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="12">
@@ -2659,7 +2669,9 @@
       <c r="C59" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D59" s="9"/>
+      <c r="D59" s="9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="12">
@@ -2671,7 +2683,9 @@
       <c r="C60" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="9"/>
+      <c r="D60" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="12">
@@ -2707,7 +2721,9 @@
       <c r="C63" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="9"/>
+      <c r="D63" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="12">

--- a/0_일정관리/일정관리.xlsx
+++ b/0_일정관리/일정관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\joblessFriends\0_일정관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCFCCCF-AECD-4AFF-8194-44252F38805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB8FB2D-6357-491F-957F-E2192D053462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{840FC74B-7EFB-4D35-A2F3-690057C58CD0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="58">
   <si>
     <t>목</t>
   </si>
@@ -226,6 +226,30 @@
   </si>
   <si>
     <t>코딩(오우람:채팅 기능/최유혁,주찬미:이력서/박찬정:UI 고도화/전유빈:게시판 댓글/정현식:공고 주변기능)/중간점검 대비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대통령 선거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현충일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서작성(오우람:기획서/프레젠테이션)코딩(오우람:관리자기능/최유혁,주찬미:이력서/박찬정:UI고도화/전유빈:공지/정현식:공고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩(오우람,최유혁,주찬미:이력서/박찬정:UI고도화/전유빈:공지/정현식:공고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩(오우람,최유혁:이력서/주찬미:이력서 적합도/박찬정:UI고도화/전유빈:공지/정현식:공고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서작업(오우람)코딩(최유혁:이력서,주찬미:이력서 적합도/박찬정:UI고도화/전유빈:공지/정현식:공고)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,9 +648,6 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -645,6 +666,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,35 +747,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,19 +1073,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.69921875" defaultRowHeight="25.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" style="14" customWidth="1"/>
     <col min="2" max="16384" width="6.69921875" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:79" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.4">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <f ca="1">CA3-TODAY()</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>45743</v>
@@ -1630,245 +1654,240 @@
       <c r="BZ5" s="5"/>
       <c r="CA5" s="7"/>
     </row>
-    <row r="6" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:79" s="12" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AQ6" s="30"/>
-      <c r="AR6" s="30"/>
-      <c r="AS6" s="30"/>
-      <c r="AT6" s="30"/>
-      <c r="AU6" s="30"/>
-      <c r="AV6" s="30"/>
-      <c r="AW6" s="31"/>
-      <c r="BS6" s="35" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="40"/>
+      <c r="BS6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="BT6" s="36"/>
-      <c r="BU6" s="36"/>
-      <c r="BV6" s="36"/>
-      <c r="BW6" s="36"/>
-      <c r="BX6" s="36"/>
-      <c r="BY6" s="36"/>
-      <c r="BZ6" s="37"/>
-    </row>
-    <row r="7" spans="1:79" s="13" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="19"/>
-      <c r="T7" s="38" t="s">
+      <c r="BT6" s="18"/>
+      <c r="BU6" s="18"/>
+      <c r="BV6" s="18"/>
+      <c r="BW6" s="18"/>
+      <c r="BX6" s="18"/>
+      <c r="BY6" s="18"/>
+      <c r="BZ6" s="19"/>
+    </row>
+    <row r="7" spans="1:79" s="12" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="28"/>
+      <c r="T7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AJ7" s="42" t="s">
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AJ7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="43"/>
-      <c r="BA7" s="43"/>
-      <c r="BB7" s="43"/>
-      <c r="BC7" s="43"/>
-      <c r="BD7" s="43"/>
-      <c r="BE7" s="43"/>
-      <c r="BF7" s="43"/>
-      <c r="BG7" s="43"/>
-      <c r="BH7" s="43"/>
-      <c r="BI7" s="43"/>
-      <c r="BJ7" s="43"/>
-      <c r="BK7" s="43"/>
-      <c r="BL7" s="43"/>
-      <c r="BM7" s="43"/>
-      <c r="BN7" s="43"/>
-      <c r="BO7" s="43"/>
-      <c r="BP7" s="43"/>
-      <c r="BQ7" s="43"/>
-      <c r="BR7" s="43"/>
-      <c r="BS7" s="44"/>
-      <c r="CA7" s="14" t="s">
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="25"/>
+      <c r="AY7" s="25"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="25"/>
+      <c r="BD7" s="25"/>
+      <c r="BE7" s="25"/>
+      <c r="BF7" s="25"/>
+      <c r="BG7" s="25"/>
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="25"/>
+      <c r="BK7" s="25"/>
+      <c r="BL7" s="25"/>
+      <c r="BM7" s="25"/>
+      <c r="BN7" s="25"/>
+      <c r="BO7" s="25"/>
+      <c r="BP7" s="25"/>
+      <c r="BQ7" s="25"/>
+      <c r="BR7" s="25"/>
+      <c r="BS7" s="26"/>
+      <c r="CA7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:79" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="T8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="41"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="23"/>
     </row>
     <row r="9" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="39" t="s">
+      <c r="T9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="41"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="23"/>
     </row>
     <row r="10" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="X10" s="23" t="s">
+      <c r="X10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="25"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="34"/>
     </row>
     <row r="11" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="32" t="s">
+      <c r="T11" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="20" t="s">
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="17"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="16"/>
     </row>
     <row r="12" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="26" t="s">
+      <c r="T12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="28"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="37"/>
     </row>
     <row r="13" spans="1:79" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="X13" s="20" t="s">
+      <c r="X13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
-      <c r="AE13" s="22"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="BS6:BZ6"/>
-    <mergeCell ref="T7:AE7"/>
-    <mergeCell ref="T8:AE8"/>
-    <mergeCell ref="T9:AE9"/>
-    <mergeCell ref="AJ7:BS7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="X13:AE13"/>
     <mergeCell ref="X10:AE10"/>
@@ -1876,6 +1895,11 @@
     <mergeCell ref="Y11:AE11"/>
     <mergeCell ref="B6:AW6"/>
     <mergeCell ref="T11:X11"/>
+    <mergeCell ref="BS6:BZ6"/>
+    <mergeCell ref="T7:AE7"/>
+    <mergeCell ref="T8:AE8"/>
+    <mergeCell ref="T9:AE9"/>
+    <mergeCell ref="AJ7:BS7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1885,28 +1909,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C0708E-2CF6-4170-A15A-EA1F1492608D}">
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="98.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -1914,8 +1938,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="12">
-        <v>77</v>
+      <c r="A3" s="44">
+        <v>81</v>
       </c>
       <c r="B3" s="8">
         <v>45743</v>
@@ -1928,8 +1952,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="12">
-        <v>76</v>
+      <c r="A4" s="44">
+        <v>80</v>
       </c>
       <c r="B4" s="8">
         <v>45744</v>
@@ -1942,8 +1966,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="12">
-        <v>75</v>
+      <c r="A5" s="44">
+        <v>79</v>
       </c>
       <c r="B5" s="10">
         <v>45745</v>
@@ -1954,8 +1978,8 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="12">
-        <v>74</v>
+      <c r="A6" s="44">
+        <v>78</v>
       </c>
       <c r="B6" s="10">
         <v>45746</v>
@@ -1966,8 +1990,8 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="12">
-        <v>73</v>
+      <c r="A7" s="44">
+        <v>77</v>
       </c>
       <c r="B7" s="8">
         <v>45747</v>
@@ -1980,8 +2004,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="12">
-        <v>72</v>
+      <c r="A8" s="44">
+        <v>76</v>
       </c>
       <c r="B8" s="8">
         <v>45748</v>
@@ -1994,8 +2018,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="12">
-        <v>71</v>
+      <c r="A9" s="44">
+        <v>75</v>
       </c>
       <c r="B9" s="8">
         <v>45749</v>
@@ -2008,8 +2032,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="12">
-        <v>70</v>
+      <c r="A10" s="44">
+        <v>74</v>
       </c>
       <c r="B10" s="8">
         <v>45750</v>
@@ -2022,8 +2046,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="12">
-        <v>69</v>
+      <c r="A11" s="44">
+        <v>73</v>
       </c>
       <c r="B11" s="8">
         <v>45751</v>
@@ -2036,8 +2060,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="12">
-        <v>68</v>
+      <c r="A12" s="44">
+        <v>72</v>
       </c>
       <c r="B12" s="10">
         <v>45752</v>
@@ -2048,8 +2072,8 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="12">
-        <v>67</v>
+      <c r="A13" s="44">
+        <v>71</v>
       </c>
       <c r="B13" s="10">
         <v>45753</v>
@@ -2060,8 +2084,8 @@
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="12">
-        <v>66</v>
+      <c r="A14" s="44">
+        <v>70</v>
       </c>
       <c r="B14" s="8">
         <v>45754</v>
@@ -2074,8 +2098,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="12">
-        <v>65</v>
+      <c r="A15" s="44">
+        <v>69</v>
       </c>
       <c r="B15" s="8">
         <v>45755</v>
@@ -2088,8 +2112,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="12">
-        <v>64</v>
+      <c r="A16" s="44">
+        <v>68</v>
       </c>
       <c r="B16" s="8">
         <v>45756</v>
@@ -2102,8 +2126,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="12">
-        <v>63</v>
+      <c r="A17" s="44">
+        <v>67</v>
       </c>
       <c r="B17" s="8">
         <v>45757</v>
@@ -2116,8 +2140,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="12">
-        <v>62</v>
+      <c r="A18" s="44">
+        <v>66</v>
       </c>
       <c r="B18" s="8">
         <v>45758</v>
@@ -2130,8 +2154,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="12">
-        <v>61</v>
+      <c r="A19" s="44">
+        <v>65</v>
       </c>
       <c r="B19" s="10">
         <v>45759</v>
@@ -2142,8 +2166,8 @@
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="12">
-        <v>60</v>
+      <c r="A20" s="44">
+        <v>64</v>
       </c>
       <c r="B20" s="10">
         <v>45760</v>
@@ -2154,8 +2178,8 @@
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="12">
-        <v>59</v>
+      <c r="A21" s="44">
+        <v>63</v>
       </c>
       <c r="B21" s="8">
         <v>45761</v>
@@ -2168,8 +2192,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="12">
-        <v>58</v>
+      <c r="A22" s="44">
+        <v>62</v>
       </c>
       <c r="B22" s="8">
         <v>45762</v>
@@ -2182,8 +2206,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="12">
-        <v>57</v>
+      <c r="A23" s="44">
+        <v>61</v>
       </c>
       <c r="B23" s="8">
         <v>45763</v>
@@ -2196,8 +2220,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="12">
-        <v>56</v>
+      <c r="A24" s="44">
+        <v>60</v>
       </c>
       <c r="B24" s="8">
         <v>45764</v>
@@ -2210,8 +2234,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="12">
-        <v>55</v>
+      <c r="A25" s="44">
+        <v>59</v>
       </c>
       <c r="B25" s="8">
         <v>45765</v>
@@ -2224,8 +2248,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="12">
-        <v>54</v>
+      <c r="A26" s="44">
+        <v>58</v>
       </c>
       <c r="B26" s="10">
         <v>45766</v>
@@ -2236,8 +2260,8 @@
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="12">
-        <v>53</v>
+      <c r="A27" s="44">
+        <v>57</v>
       </c>
       <c r="B27" s="10">
         <v>45767</v>
@@ -2248,8 +2272,8 @@
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="12">
-        <v>52</v>
+      <c r="A28" s="44">
+        <v>56</v>
       </c>
       <c r="B28" s="8">
         <v>45768</v>
@@ -2262,8 +2286,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="12">
-        <v>51</v>
+      <c r="A29" s="44">
+        <v>55</v>
       </c>
       <c r="B29" s="8">
         <v>45769</v>
@@ -2276,8 +2300,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="12">
-        <v>50</v>
+      <c r="A30" s="44">
+        <v>54</v>
       </c>
       <c r="B30" s="8">
         <v>45770</v>
@@ -2290,8 +2314,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="12">
-        <v>49</v>
+      <c r="A31" s="44">
+        <v>53</v>
       </c>
       <c r="B31" s="8">
         <v>45771</v>
@@ -2304,8 +2328,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="12">
-        <v>48</v>
+      <c r="A32" s="44">
+        <v>52</v>
       </c>
       <c r="B32" s="8">
         <v>45772</v>
@@ -2318,8 +2342,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="12">
-        <v>47</v>
+      <c r="A33" s="44">
+        <v>51</v>
       </c>
       <c r="B33" s="10">
         <v>45773</v>
@@ -2330,8 +2354,8 @@
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="12">
-        <v>46</v>
+      <c r="A34" s="44">
+        <v>50</v>
       </c>
       <c r="B34" s="10">
         <v>45774</v>
@@ -2342,8 +2366,8 @@
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="12">
-        <v>45</v>
+      <c r="A35" s="44">
+        <v>49</v>
       </c>
       <c r="B35" s="8">
         <v>45775</v>
@@ -2356,8 +2380,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="12">
-        <v>44</v>
+      <c r="A36" s="44">
+        <v>48</v>
       </c>
       <c r="B36" s="8">
         <v>45776</v>
@@ -2370,8 +2394,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="12">
-        <v>43</v>
+      <c r="A37" s="44">
+        <v>47</v>
       </c>
       <c r="B37" s="8">
         <v>45777</v>
@@ -2382,8 +2406,8 @@
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="12">
-        <v>42</v>
+      <c r="A38" s="44">
+        <v>46</v>
       </c>
       <c r="B38" s="8">
         <v>45778</v>
@@ -2394,8 +2418,8 @@
       <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="12">
-        <v>41</v>
+      <c r="A39" s="44">
+        <v>45</v>
       </c>
       <c r="B39" s="8">
         <v>45779</v>
@@ -2406,8 +2430,8 @@
       <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="12">
-        <v>40</v>
+      <c r="A40" s="44">
+        <v>44</v>
       </c>
       <c r="B40" s="10">
         <v>45780</v>
@@ -2418,8 +2442,8 @@
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="12">
-        <v>39</v>
+      <c r="A41" s="44">
+        <v>43</v>
       </c>
       <c r="B41" s="10">
         <v>45781</v>
@@ -2430,8 +2454,8 @@
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="12">
-        <v>38</v>
+      <c r="A42" s="44">
+        <v>42</v>
       </c>
       <c r="B42" s="10">
         <v>45782</v>
@@ -2444,8 +2468,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="12">
-        <v>37</v>
+      <c r="A43" s="44">
+        <v>41</v>
       </c>
       <c r="B43" s="10">
         <v>45783</v>
@@ -2458,8 +2482,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="12">
-        <v>36</v>
+      <c r="A44" s="44">
+        <v>40</v>
       </c>
       <c r="B44" s="8">
         <v>45784</v>
@@ -2472,8 +2496,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="12">
-        <v>35</v>
+      <c r="A45" s="44">
+        <v>39</v>
       </c>
       <c r="B45" s="8">
         <v>45785</v>
@@ -2486,8 +2510,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="12">
-        <v>34</v>
+      <c r="A46" s="44">
+        <v>38</v>
       </c>
       <c r="B46" s="8">
         <v>45786</v>
@@ -2500,8 +2524,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="12">
-        <v>33</v>
+      <c r="A47" s="44">
+        <v>37</v>
       </c>
       <c r="B47" s="10">
         <v>45787</v>
@@ -2512,8 +2536,8 @@
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="12">
-        <v>32</v>
+      <c r="A48" s="44">
+        <v>36</v>
       </c>
       <c r="B48" s="10">
         <v>45788</v>
@@ -2524,8 +2548,8 @@
       <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" s="12">
-        <v>31</v>
+      <c r="A49" s="44">
+        <v>35</v>
       </c>
       <c r="B49" s="8">
         <v>45789</v>
@@ -2538,8 +2562,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="12">
-        <v>30</v>
+      <c r="A50" s="44">
+        <v>34</v>
       </c>
       <c r="B50" s="8">
         <v>45790</v>
@@ -2552,8 +2576,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="12">
-        <v>29</v>
+      <c r="A51" s="44">
+        <v>33</v>
       </c>
       <c r="B51" s="8">
         <v>45791</v>
@@ -2566,8 +2590,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="12">
-        <v>28</v>
+      <c r="A52" s="44">
+        <v>32</v>
       </c>
       <c r="B52" s="8">
         <v>45792</v>
@@ -2580,8 +2604,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" s="12">
-        <v>27</v>
+      <c r="A53" s="44">
+        <v>31</v>
       </c>
       <c r="B53" s="8">
         <v>45793</v>
@@ -2594,8 +2618,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="12">
-        <v>26</v>
+      <c r="A54" s="44">
+        <v>30</v>
       </c>
       <c r="B54" s="10">
         <v>45794</v>
@@ -2606,8 +2630,8 @@
       <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="12">
-        <v>25</v>
+      <c r="A55" s="44">
+        <v>29</v>
       </c>
       <c r="B55" s="10">
         <v>45795</v>
@@ -2618,8 +2642,8 @@
       <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="12">
-        <v>24</v>
+      <c r="A56" s="44">
+        <v>28</v>
       </c>
       <c r="B56" s="8">
         <v>45796</v>
@@ -2632,8 +2656,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="12">
-        <v>23</v>
+      <c r="A57" s="44">
+        <v>27</v>
       </c>
       <c r="B57" s="8">
         <v>45797</v>
@@ -2646,8 +2670,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" s="12">
-        <v>22</v>
+      <c r="A58" s="44">
+        <v>26</v>
       </c>
       <c r="B58" s="8">
         <v>45798</v>
@@ -2660,8 +2684,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" s="12">
-        <v>21</v>
+      <c r="A59" s="44">
+        <v>25</v>
       </c>
       <c r="B59" s="8">
         <v>45799</v>
@@ -2674,8 +2698,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="12">
-        <v>20</v>
+      <c r="A60" s="44">
+        <v>24</v>
       </c>
       <c r="B60" s="8">
         <v>45800</v>
@@ -2688,8 +2712,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="12">
-        <v>19</v>
+      <c r="A61" s="44">
+        <v>23</v>
       </c>
       <c r="B61" s="10">
         <v>45801</v>
@@ -2700,8 +2724,8 @@
       <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="12">
-        <v>18</v>
+      <c r="A62" s="44">
+        <v>22</v>
       </c>
       <c r="B62" s="10">
         <v>45802</v>
@@ -2712,8 +2736,8 @@
       <c r="D62" s="6"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="12">
-        <v>17</v>
+      <c r="A63" s="44">
+        <v>21</v>
       </c>
       <c r="B63" s="8">
         <v>45803</v>
@@ -2726,8 +2750,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="12">
-        <v>16</v>
+      <c r="A64" s="44">
+        <v>20</v>
       </c>
       <c r="B64" s="8">
         <v>45804</v>
@@ -2735,11 +2759,13 @@
       <c r="C64" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="9"/>
+      <c r="D64" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" s="12">
-        <v>15</v>
+      <c r="A65" s="44">
+        <v>19</v>
       </c>
       <c r="B65" s="8">
         <v>45805</v>
@@ -2747,11 +2773,13 @@
       <c r="C65" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="9"/>
+      <c r="D65" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="12">
-        <v>14</v>
+      <c r="A66" s="44">
+        <v>18</v>
       </c>
       <c r="B66" s="8">
         <v>45806</v>
@@ -2759,11 +2787,13 @@
       <c r="C66" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D66" s="9"/>
+      <c r="D66" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="12">
-        <v>13</v>
+      <c r="A67" s="44">
+        <v>17</v>
       </c>
       <c r="B67" s="8">
         <v>45807</v>
@@ -2771,11 +2801,13 @@
       <c r="C67" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="9"/>
+      <c r="D67" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" s="12">
-        <v>12</v>
+      <c r="A68" s="44">
+        <v>16</v>
       </c>
       <c r="B68" s="10">
         <v>45808</v>
@@ -2786,8 +2818,8 @@
       <c r="D68" s="6"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A69" s="12">
-        <v>11</v>
+      <c r="A69" s="44">
+        <v>15</v>
       </c>
       <c r="B69" s="10">
         <v>45809</v>
@@ -2798,8 +2830,8 @@
       <c r="D69" s="6"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" s="12">
-        <v>10</v>
+      <c r="A70" s="44">
+        <v>14</v>
       </c>
       <c r="B70" s="8">
         <v>45810</v>
@@ -2807,11 +2839,13 @@
       <c r="C70" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="9"/>
+      <c r="D70" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" s="12">
-        <v>9</v>
+      <c r="A71" s="44">
+        <v>13</v>
       </c>
       <c r="B71" s="8">
         <v>45811</v>
@@ -2819,11 +2853,13 @@
       <c r="C71" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="9"/>
+      <c r="D71" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" s="12">
-        <v>8</v>
+      <c r="A72" s="44">
+        <v>12</v>
       </c>
       <c r="B72" s="8">
         <v>45812</v>
@@ -2834,8 +2870,8 @@
       <c r="D72" s="9"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" s="12">
-        <v>7</v>
+      <c r="A73" s="44">
+        <v>11</v>
       </c>
       <c r="B73" s="8">
         <v>45813</v>
@@ -2846,8 +2882,8 @@
       <c r="D73" s="9"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" s="12">
-        <v>6</v>
+      <c r="A74" s="44">
+        <v>10</v>
       </c>
       <c r="B74" s="8">
         <v>45814</v>
@@ -2855,11 +2891,13 @@
       <c r="C74" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="9"/>
+      <c r="D74" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" s="12">
-        <v>5</v>
+      <c r="A75" s="44">
+        <v>9</v>
       </c>
       <c r="B75" s="10">
         <v>45815</v>
@@ -2870,8 +2908,8 @@
       <c r="D75" s="6"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" s="12">
-        <v>4</v>
+      <c r="A76" s="44">
+        <v>8</v>
       </c>
       <c r="B76" s="10">
         <v>45816</v>
@@ -2882,8 +2920,8 @@
       <c r="D76" s="6"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="12">
-        <v>3</v>
+      <c r="A77" s="44">
+        <v>7</v>
       </c>
       <c r="B77" s="8">
         <v>45817</v>
@@ -2894,8 +2932,8 @@
       <c r="D77" s="9"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="12">
-        <v>2</v>
+      <c r="A78" s="44">
+        <v>6</v>
       </c>
       <c r="B78" s="8">
         <v>45818</v>
@@ -2906,8 +2944,8 @@
       <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="12">
-        <v>1</v>
+      <c r="A79" s="44">
+        <v>5</v>
       </c>
       <c r="B79" s="8">
         <v>45819</v>
@@ -2918,16 +2956,64 @@
       <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="12">
+      <c r="A80" s="44">
+        <v>4</v>
+      </c>
+      <c r="B80" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="11">
-        <v>45820</v>
-      </c>
-      <c r="C80" s="7" t="s">
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="44">
+        <v>3</v>
+      </c>
+      <c r="B81" s="8">
+        <v>45821</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="44">
+        <v>2</v>
+      </c>
+      <c r="B82" s="10">
+        <v>45822</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="44">
+        <v>1</v>
+      </c>
+      <c r="B83" s="10">
+        <v>45823</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="44">
         <v>0</v>
       </c>
-      <c r="D80" s="7"/>
+      <c r="B84" s="8">
+        <v>45824</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
